--- a/data/2. South Korea COVID-19 Infection Status/h.Major infectious Disease Statistics.xlsx
+++ b/data/2. South Korea COVID-19 Infection Status/h.Major infectious Disease Statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dataset\[2020] 데이터바우처 1차 ver 2\DatainBrief\2. South Korea COVID-19 Infection Status\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SW-ML\Korea_Covid19\South_Korea_COVID_19_Data_Visualization\data\2. South Korea COVID-19 Infection Status\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE16C501-5DE1-4B4D-8A9D-6D9DB15AF635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6D3F544-A4B6-43B1-BD9B-8A6D94E84086}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15000" yWindow="6240" windowWidth="23040" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="1" r:id="rId1"/>
@@ -126,22 +126,6 @@
   </si>
   <si>
     <t>By infected area</t>
-  </si>
-  <si>
-    <t>division</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>total</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>domestic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>foreign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>• Based on the Act on the Prevention and Management of Infectious Diseases, it is counted based on the report of infectious disease patients reported through the National Infectious Disease Monitoring System.
@@ -166,6 +150,18 @@
   </si>
   <si>
     <t>Middle East Respiratory Syndrome (MERS)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Counts</t>
+  </si>
+  <si>
+    <t>Local Infected Counts</t>
+  </si>
+  <si>
+    <t>Outside Infected Counts</t>
   </si>
 </sst>
 </file>
@@ -344,15 +340,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -379,6 +366,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,52 +742,54 @@
   <dimension ref="B1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="39.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="13" t="s">
+      <c r="I2" s="24"/>
+      <c r="J2" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="23"/>
+      <c r="N2" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="14"/>
+      <c r="Q2" s="23"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="2"/>
@@ -1035,63 +1033,63 @@
     </row>
     <row r="25" spans="2:22">
       <c r="B25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="13" t="s">
+      <c r="E25" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H25" s="13" t="s">
+      <c r="H25" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I25" s="13" t="s">
+      <c r="I25" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="13" t="s">
+      <c r="J25" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="K25" s="13" t="s">
+      <c r="K25" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="13" t="s">
+      <c r="M25" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N25" s="13" t="s">
+      <c r="N25" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="O25" s="13" t="s">
+      <c r="O25" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="P25" s="13" t="s">
+      <c r="P25" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Q25" s="13" t="s">
+      <c r="Q25" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="R25" s="13" t="s">
+      <c r="R25" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="S25" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="13" t="s">
+      <c r="T25" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="22" t="s">
         <v>18</v>
       </c>
       <c r="V25" s="11" t="s">
@@ -1100,7 +1098,7 @@
     </row>
     <row r="26" spans="2:22">
       <c r="B26" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>20</v>
@@ -1165,7 +1163,7 @@
     </row>
     <row r="27" spans="2:22">
       <c r="B27" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C27" s="12" t="s">
         <v>20</v>
@@ -1230,7 +1228,7 @@
     </row>
     <row r="28" spans="2:22">
       <c r="B28" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>20</v>
@@ -1293,484 +1291,486 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:22" ht="17.25" thickBot="1"/>
+    <row r="29" spans="2:22" ht="17" thickBot="1"/>
     <row r="30" spans="2:22" ht="16.5" customHeight="1">
-      <c r="B30" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="18"/>
+      <c r="B30" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
     </row>
     <row r="31" spans="2:22">
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="21"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
     </row>
     <row r="32" spans="2:22">
-      <c r="B32" s="19"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="21"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="18"/>
     </row>
     <row r="33" spans="2:17">
-      <c r="B33" s="19"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="21"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="18"/>
     </row>
     <row r="34" spans="2:17">
-      <c r="B34" s="19"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="21"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="18"/>
     </row>
     <row r="35" spans="2:17">
-      <c r="B35" s="19"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="21"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="18"/>
     </row>
     <row r="36" spans="2:17">
-      <c r="B36" s="19"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="21"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="18"/>
     </row>
     <row r="37" spans="2:17">
-      <c r="B37" s="19"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="21"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18"/>
     </row>
     <row r="38" spans="2:17">
-      <c r="B38" s="19"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="21"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="18"/>
     </row>
     <row r="39" spans="2:17">
-      <c r="B39" s="19"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="21"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="18"/>
     </row>
     <row r="40" spans="2:17">
-      <c r="B40" s="19"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="21"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="18"/>
     </row>
     <row r="41" spans="2:17">
-      <c r="B41" s="19"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="21"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="18"/>
     </row>
     <row r="42" spans="2:17">
-      <c r="B42" s="19"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="21"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="18"/>
     </row>
     <row r="43" spans="2:17">
-      <c r="B43" s="19"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="21"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="18"/>
     </row>
     <row r="44" spans="2:17">
-      <c r="B44" s="19"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="21"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="18"/>
     </row>
     <row r="45" spans="2:17">
-      <c r="B45" s="19"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="21"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="18"/>
     </row>
     <row r="46" spans="2:17">
-      <c r="B46" s="19"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="21"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="18"/>
     </row>
     <row r="47" spans="2:17">
-      <c r="B47" s="19"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="21"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="18"/>
     </row>
     <row r="48" spans="2:17">
-      <c r="B48" s="19"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="21"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="18"/>
     </row>
     <row r="49" spans="2:17">
-      <c r="B49" s="19"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="21"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="18"/>
     </row>
     <row r="50" spans="2:17">
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="21"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="17"/>
+      <c r="M50" s="17"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="18"/>
     </row>
     <row r="51" spans="2:17">
-      <c r="B51" s="19"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="21"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="17"/>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="18"/>
     </row>
     <row r="52" spans="2:17">
-      <c r="B52" s="19"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="21"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="17"/>
+      <c r="L52" s="17"/>
+      <c r="M52" s="17"/>
+      <c r="N52" s="17"/>
+      <c r="O52" s="17"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="18"/>
     </row>
     <row r="53" spans="2:17">
-      <c r="B53" s="19"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="21"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="17"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="17"/>
+      <c r="L53" s="17"/>
+      <c r="M53" s="17"/>
+      <c r="N53" s="17"/>
+      <c r="O53" s="17"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="18"/>
     </row>
     <row r="54" spans="2:17">
-      <c r="B54" s="19"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="21"/>
-    </row>
-    <row r="55" spans="2:17" ht="17.25" thickBot="1">
-      <c r="B55" s="22"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="24"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="17"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="17"/>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="18"/>
+    </row>
+    <row r="55" spans="2:17" ht="17" thickBot="1">
+      <c r="B55" s="19"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="20"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B30:Q55"/>
-    <mergeCell ref="Q25"/>
-    <mergeCell ref="R25"/>
-    <mergeCell ref="S25"/>
-    <mergeCell ref="T25"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="L2:M2"/>
     <mergeCell ref="U25"/>
     <mergeCell ref="P2:Q2"/>
     <mergeCell ref="C25"/>
@@ -1787,13 +1787,11 @@
     <mergeCell ref="N25"/>
     <mergeCell ref="O25"/>
     <mergeCell ref="P25"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="B30:Q55"/>
+    <mergeCell ref="Q25"/>
+    <mergeCell ref="R25"/>
+    <mergeCell ref="S25"/>
+    <mergeCell ref="T25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
